--- a/frontend/app/static/upload/tenders.xlsx
+++ b/frontend/app/static/upload/tenders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viacheslav_Matrizaev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A52E35-9434-46D4-A345-F4C70DCB40F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9AFED9-532E-411A-BF26-1C93362E596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,17 +58,17 @@
     <t>image</t>
   </si>
   <si>
-    <t>qwerqwer</t>
-  </si>
-  <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>https://vls.pushkind.com/static/upload/logo.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,10 +133,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -136,8 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,7 +452,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -500,14 +511,17 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E28B2AAC-F4B6-4DD6-A97E-4E90A8AA8A82}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>